--- a/Gamificaciones/EvaluacionLeadsAJuniors.xlsx
+++ b/Gamificaciones/EvaluacionLeadsAJuniors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\Gamificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4AA3B1-7374-4340-858E-DECD8A3000F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E02BF49-A5C8-452A-A70C-7564AA31D9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="20490" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="2040" windowWidth="20490" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla SP → Recompensas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Story Points</t>
   </si>
@@ -35,20 +35,32 @@
     <t>Nombre del Junior</t>
   </si>
   <si>
-    <t>Bonos/Penalizaciones</t>
-  </si>
-  <si>
     <t>Total Diamantes</t>
   </si>
   <si>
     <t>Total Monedas</t>
+  </si>
+  <si>
+    <t>Cada tarea tiene una story point individual y la resultante es la suma de las story points individuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monedas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamantes </t>
+  </si>
+  <si>
+    <t>Esta persona realizo 2 tareas de 1,5 story points y 1 tarea de 2 story points</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +73,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -107,10 +131,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,9 +146,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D6DF2B7B-7D86-4712-B7E1-389721D38D30}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,18 +455,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18" customWidth="1"/>
+    <col min="1" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -445,225 +477,257 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.5</v>
       </c>
       <c r="B4" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="C4" s="2">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18.75</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C5" s="1">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2.5</v>
       </c>
       <c r="B6" s="2">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="C6" s="2">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3.5</v>
       </c>
       <c r="B8" s="2">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="C8" s="2">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="C9" s="1">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <v>18.75</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4.5</v>
       </c>
       <c r="B10" s="2">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="C10" s="2">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7">
+        <v>18.75</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5.5</v>
       </c>
       <c r="B12" s="2">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="C12" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58.33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>3.78</v>
+        <v>3.67</v>
       </c>
       <c r="C13" s="1">
-        <v>74.099999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66.67</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6.5</v>
       </c>
       <c r="B14" s="2">
-        <v>4.08</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>80.099999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="C15" s="1">
-        <v>86.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83.33</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7.5</v>
       </c>
       <c r="B16" s="2">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="C16" s="2">
-        <v>92.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91.67</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>4.9800000000000004</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5.27</v>
-      </c>
-      <c r="C18" s="2">
-        <v>104.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5.57</v>
-      </c>
-      <c r="C19" s="1">
-        <v>110.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5.87</v>
-      </c>
-      <c r="C20" s="2">
-        <v>116.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6.17</v>
-      </c>
-      <c r="C21" s="1">
-        <v>122.5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -672,18 +736,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="22" customWidth="1"/>
+    <col min="1" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -702,45 +766,38 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
